--- a/3_output.xlsx
+++ b/3_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>code</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>factor</t>
+  </si>
+  <si>
+    <t>increase_ratio</t>
   </si>
   <si>
     <t>300017</t>
@@ -995,13 +998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,16 +1083,19 @@
       <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2">
         <v>2.3324</v>
@@ -1163,16 +1169,19 @@
       <c r="AA2">
         <v>7.5099</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2">
+        <v>0.6060534960112625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>2.097</v>
@@ -1246,16 +1255,19 @@
       <c r="AA3">
         <v>5.5336</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3">
+        <v>0.9972067039106144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>2.3324</v>
@@ -1329,16 +1341,19 @@
       <c r="AA4">
         <v>3.3141</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4">
+        <v>0.6201896263245956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>0.8945</v>
@@ -1412,16 +1427,19 @@
       <c r="AA5">
         <v>9.100899999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5">
+        <v>1.041224734840904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>0.3854</v>
@@ -1495,16 +1513,19 @@
       <c r="AA6">
         <v>6.5031</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6">
+        <v>2.44789356984479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D7">
         <v>2.3324</v>
@@ -1578,16 +1599,19 @@
       <c r="AA7">
         <v>3.5244</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7">
+        <v>1.167573449401524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8">
         <v>0.4599</v>
@@ -1661,16 +1685,19 @@
       <c r="AA8">
         <v>3.5963</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8">
+        <v>0.952685669963157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9">
         <v>-0.0726</v>
@@ -1744,16 +1771,19 @@
       <c r="AA9">
         <v>3.7933</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9">
+        <v>1.139502920627649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>2.3324</v>
@@ -1827,16 +1857,19 @@
       <c r="AA10">
         <v>5.27</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10">
+        <v>0.03813559322033909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>0.1573</v>
@@ -1910,16 +1943,19 @@
       <c r="AA11">
         <v>4.0637</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11">
+        <v>1.326019883441893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>0.0625</v>
@@ -1993,16 +2029,19 @@
       <c r="AA12">
         <v>3.4385</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12">
+        <v>1.307232516437537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13">
         <v>2.3324</v>
@@ -2076,16 +2115,19 @@
       <c r="AA13">
         <v>5.873900000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13">
+        <v>0.5013227513227514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>0.1757</v>
@@ -2159,16 +2201,19 @@
       <c r="AA14">
         <v>5.029</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14">
+        <v>0.3821256742965448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D15">
         <v>2.3324</v>
@@ -2242,16 +2287,19 @@
       <c r="AA15">
         <v>14.6577</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15">
+        <v>-0.08158126652398334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D16">
         <v>0.1068</v>
@@ -2325,16 +2373,19 @@
       <c r="AA16">
         <v>5.1999</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16">
+        <v>2.937621832358674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D17">
         <v>0.8838</v>
@@ -2408,16 +2459,19 @@
       <c r="AA17">
         <v>16.3034</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17">
+        <v>0.3555755936278929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D18">
         <v>1.6066</v>
@@ -2491,16 +2545,19 @@
       <c r="AA18">
         <v>11.5651</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18">
+        <v>5.213896682620894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D19">
         <v>2.3324</v>
@@ -2574,16 +2631,19 @@
       <c r="AA19">
         <v>3.6474</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19">
+        <v>1.176318327158301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D20">
         <v>0.5202</v>
@@ -2657,16 +2717,19 @@
       <c r="AA20">
         <v>7.9812</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20">
+        <v>0.9053497942386832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D21">
         <v>0.0072</v>
@@ -2740,16 +2803,19 @@
       <c r="AA21">
         <v>2.8471</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21">
+        <v>2.033249686323714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D22">
         <v>-0.0247</v>
@@ -2823,16 +2889,19 @@
       <c r="AA22">
         <v>3.4007</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22">
+        <v>1.330097087378641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D23">
         <v>2.3324</v>
@@ -2906,16 +2975,19 @@
       <c r="AA23">
         <v>3.5063</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23">
+        <v>0.5570672713529857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D24">
         <v>0.5875</v>
@@ -2989,16 +3061,19 @@
       <c r="AA24">
         <v>4.8552</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24">
+        <v>1.001405728342998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D25">
         <v>1.9701</v>
@@ -3072,16 +3147,19 @@
       <c r="AA25">
         <v>5.8224</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25">
+        <v>5.224522808152701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D26">
         <v>0.7764</v>
@@ -3155,16 +3233,19 @@
       <c r="AA26">
         <v>7.9585</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26">
+        <v>4.331491712707182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D27">
         <v>0.9646</v>
@@ -3238,16 +3319,19 @@
       <c r="AA27">
         <v>11.3133</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27">
+        <v>3.391767732451304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D28">
         <v>-0.09300000000000001</v>
@@ -3321,16 +3405,19 @@
       <c r="AA28">
         <v>3.985200000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28">
+        <v>3.008763619137849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D29">
         <v>0.6273</v>
@@ -3404,16 +3491,19 @@
       <c r="AA29">
         <v>3.6699</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29">
+        <v>1.418072522784565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D30">
         <v>0.3959</v>
@@ -3487,16 +3577,19 @@
       <c r="AA30">
         <v>3.5801</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30">
+        <v>0.04187126149450936</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D31">
         <v>2.3309</v>
@@ -3570,16 +3663,19 @@
       <c r="AA31">
         <v>5.3673</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31">
+        <v>-0.1462639109697933</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D32">
         <v>2.3324</v>
@@ -3653,16 +3749,19 @@
       <c r="AA32">
         <v>8.0237</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32">
+        <v>-0.1354441512752858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D33">
         <v>0.9477</v>
@@ -3736,16 +3835,19 @@
       <c r="AA33">
         <v>6.3132</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33">
+        <v>0.07732273838630811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34">
         <v>0.0534</v>
@@ -3819,16 +3921,19 @@
       <c r="AA34">
         <v>3.6599</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34">
+        <v>3.171578258022266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35">
         <v>2.3324</v>
@@ -3902,16 +4007,19 @@
       <c r="AA35">
         <v>7.2535</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35">
+        <v>2.064828253507498</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36">
         <v>2.3324</v>
@@ -3985,16 +4093,19 @@
       <c r="AA36">
         <v>15.3159</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36">
+        <v>-0.006748826291079851</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37">
         <v>2.3324</v>
@@ -4068,16 +4179,19 @@
       <c r="AA37">
         <v>4.1145</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37">
+        <v>0.849353569421023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D38">
         <v>2.3324</v>
@@ -4151,16 +4265,19 @@
       <c r="AA38">
         <v>15.1334</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38">
+        <v>0.3661780262959043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39">
         <v>2.3324</v>
@@ -4234,16 +4351,19 @@
       <c r="AA39">
         <v>9.7988</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39">
+        <v>0.5154052243804421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D40">
         <v>0.2046</v>
@@ -4317,16 +4437,19 @@
       <c r="AA40">
         <v>10.6972</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40">
+        <v>0.4527963476275885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D41">
         <v>1.5765</v>
@@ -4400,16 +4523,19 @@
       <c r="AA41">
         <v>3.4002</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41">
+        <v>1.684529828109201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D42">
         <v>2.0976</v>
@@ -4483,16 +4609,19 @@
       <c r="AA42">
         <v>8.575500000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42">
+        <v>0.9045911047345767</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D43">
         <v>2.3324</v>
@@ -4566,16 +4695,19 @@
       <c r="AA43">
         <v>7.436300000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43">
+        <v>1.176384305097176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D44">
         <v>0.4601</v>
@@ -4649,16 +4781,19 @@
       <c r="AA44">
         <v>3.893000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44">
+        <v>1.887833092336294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D45">
         <v>0.5157</v>
@@ -4732,16 +4867,19 @@
       <c r="AA45">
         <v>5.9147</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45">
+        <v>1.139025725232622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D46">
         <v>0.7393999999999999</v>
@@ -4815,16 +4953,19 @@
       <c r="AA46">
         <v>5.244199999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46">
+        <v>0.969453376205788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D47">
         <v>-0.0994</v>
@@ -4898,16 +5039,19 @@
       <c r="AA47">
         <v>6.7776</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47">
+        <v>0.929657794676806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D48">
         <v>0.5606</v>
@@ -4981,16 +5125,19 @@
       <c r="AA48">
         <v>4.299200000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48">
+        <v>2.190286094477711</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D49">
         <v>2.3324</v>
@@ -5064,16 +5211,19 @@
       <c r="AA49">
         <v>13.7383</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49">
+        <v>2.420941076727427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D50">
         <v>1.1762</v>
@@ -5147,16 +5297,19 @@
       <c r="AA50">
         <v>4.6004</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50">
+        <v>2.018991486574984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D51">
         <v>1.4978</v>
@@ -5230,16 +5383,19 @@
       <c r="AA51">
         <v>4.062900000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51">
+        <v>1.09020618556701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D52">
         <v>2.3324</v>
@@ -5313,16 +5469,19 @@
       <c r="AA52">
         <v>3.0445</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52">
+        <v>1.803622890078222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53">
         <v>0.3595</v>
@@ -5396,16 +5555,19 @@
       <c r="AA53">
         <v>5.1166</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53">
+        <v>2.352506162695152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D54">
         <v>0.523</v>
@@ -5479,16 +5641,19 @@
       <c r="AA54">
         <v>7.554400000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54">
+        <v>0.04322474331347448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55">
         <v>0.7</v>
@@ -5562,16 +5727,19 @@
       <c r="AA55">
         <v>2.8738</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55">
+        <v>4.1715438950555</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56">
         <v>-0.4819</v>
@@ -5645,16 +5813,19 @@
       <c r="AA56">
         <v>10.6777</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56">
+        <v>1.649052668173127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57">
         <v>0.6595</v>
@@ -5728,16 +5899,19 @@
       <c r="AA57">
         <v>14.3191</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57">
+        <v>3.63881636205396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58">
         <v>0.9559</v>
@@ -5811,16 +5985,19 @@
       <c r="AA58">
         <v>5.7267</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58">
+        <v>3.882688649334179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59">
         <v>-0.3776</v>
@@ -5894,16 +6071,19 @@
       <c r="AA59">
         <v>4.2396</v>
       </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59">
+        <v>0.6401308615049073</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60">
         <v>0.4908</v>
@@ -5977,16 +6157,19 @@
       <c r="AA60">
         <v>3.2695</v>
       </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60">
+        <v>-0.1202815099168266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61">
         <v>0.4456</v>
@@ -6060,16 +6243,19 @@
       <c r="AA61">
         <v>4.3081</v>
       </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61">
+        <v>0.3018726591760299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62">
         <v>1.2369</v>
@@ -6143,16 +6329,19 @@
       <c r="AA62">
         <v>6.644400000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AB62">
+        <v>1.915993537964459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63">
         <v>0.5547</v>
@@ -6226,16 +6415,19 @@
       <c r="AA63">
         <v>6.1027</v>
       </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AB63">
+        <v>1.379943502824859</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64">
         <v>1.5688</v>
@@ -6309,16 +6501,19 @@
       <c r="AA64">
         <v>11.4975</v>
       </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AB64">
+        <v>1.244017261671243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65">
         <v>0.4107</v>
@@ -6392,16 +6587,19 @@
       <c r="AA65">
         <v>5.6626</v>
       </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AB65">
+        <v>0.1059024078414662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D66">
         <v>0.8929</v>
@@ -6475,16 +6673,19 @@
       <c r="AA66">
         <v>5.4213</v>
       </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AB66">
+        <v>0.6617074845502404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D67">
         <v>2.3324</v>
@@ -6558,16 +6759,19 @@
       <c r="AA67">
         <v>4.992999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AB67">
+        <v>0.3125381330079317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D68">
         <v>0.2652</v>
@@ -6641,16 +6845,19 @@
       <c r="AA68">
         <v>4.3705</v>
       </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AB68">
+        <v>2.953136810279668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D69">
         <v>1.028</v>
@@ -6724,16 +6931,19 @@
       <c r="AA69">
         <v>6.3637</v>
       </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AB69">
+        <v>2.420026007802341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D70">
         <v>0.1757</v>
@@ -6807,16 +7017,19 @@
       <c r="AA70">
         <v>8.772600000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AB70">
+        <v>-0.3654928110022922</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D71">
         <v>2.3324</v>
@@ -6890,16 +7103,19 @@
       <c r="AA71">
         <v>12.0105</v>
       </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AB71">
+        <v>0.5666156202143952</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D72">
         <v>2.0841</v>
@@ -6973,16 +7189,19 @@
       <c r="AA72">
         <v>7.8651</v>
       </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AB72">
+        <v>2.898658330076853</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D73">
         <v>2.3324</v>
@@ -7056,16 +7275,19 @@
       <c r="AA73">
         <v>13.7559</v>
       </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AB73">
+        <v>1.135657858894034</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D74">
         <v>-0.3847</v>
@@ -7139,16 +7361,19 @@
       <c r="AA74">
         <v>3.8531</v>
       </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AB74">
+        <v>0.9865546218487394</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D75">
         <v>2.3324</v>
@@ -7222,16 +7447,19 @@
       <c r="AA75">
         <v>4.6717</v>
       </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AB75">
+        <v>0.8357588357588359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D76">
         <v>0.6887</v>
@@ -7305,16 +7533,19 @@
       <c r="AA76">
         <v>5.0938</v>
       </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AB76">
+        <v>3.699054170249354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D77">
         <v>0.8146</v>
@@ -7388,16 +7619,19 @@
       <c r="AA77">
         <v>4.580400000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AB77">
+        <v>2.291991495393338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D78">
         <v>0.4995</v>
@@ -7471,16 +7705,19 @@
       <c r="AA78">
         <v>4.4767</v>
       </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AB78">
+        <v>2.924554826616682</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D79">
         <v>-0.2323</v>
@@ -7554,16 +7791,19 @@
       <c r="AA79">
         <v>4.298500000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AB79">
+        <v>1.540350877192982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D80">
         <v>0.0347</v>
@@ -7637,16 +7877,19 @@
       <c r="AA80">
         <v>4.0015</v>
       </c>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AB80">
+        <v>1.987070102911426</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D81">
         <v>0.4475</v>
@@ -7720,16 +7963,19 @@
       <c r="AA81">
         <v>4.3847</v>
       </c>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AB81">
+        <v>0.5681943677526229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D82">
         <v>-0.315</v>
@@ -7803,16 +8049,19 @@
       <c r="AA82">
         <v>3.3434</v>
       </c>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AB82">
+        <v>-0.1062902221299565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D83">
         <v>0.3533</v>
@@ -7886,16 +8135,19 @@
       <c r="AA83">
         <v>5.5643</v>
       </c>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AB83">
+        <v>1.165792235047219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D84">
         <v>0.0245</v>
@@ -7969,16 +8221,19 @@
       <c r="AA84">
         <v>3.2358</v>
       </c>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AB84">
+        <v>0.6340125391849529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D85">
         <v>0.5214</v>
@@ -8052,16 +8307,19 @@
       <c r="AA85">
         <v>7.3384</v>
       </c>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AB85">
+        <v>-0.4606023729844843</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D86">
         <v>0.1886</v>
@@ -8135,16 +8393,19 @@
       <c r="AA86">
         <v>5.1365</v>
       </c>
-    </row>
-    <row r="87" spans="1:27">
+      <c r="AB86">
+        <v>-0.6132665832290364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D87">
         <v>-0.1356</v>
@@ -8218,16 +8479,19 @@
       <c r="AA87">
         <v>11.8843</v>
       </c>
-    </row>
-    <row r="88" spans="1:27">
+      <c r="AB87">
+        <v>0.349753694581281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D88">
         <v>-0.5981</v>
@@ -8301,16 +8565,19 @@
       <c r="AA88">
         <v>8.341400000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:27">
+      <c r="AB88">
+        <v>1.825730994152047</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D89">
         <v>-0.1308</v>
@@ -8384,16 +8651,19 @@
       <c r="AA89">
         <v>4.791</v>
       </c>
-    </row>
-    <row r="90" spans="1:27">
+      <c r="AB89">
+        <v>1.166351606805293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D90">
         <v>0.4934</v>
@@ -8467,16 +8737,19 @@
       <c r="AA90">
         <v>2.9909</v>
       </c>
-    </row>
-    <row r="91" spans="1:27">
+      <c r="AB90">
+        <v>0.6231769024704831</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D91">
         <v>1.2037</v>
@@ -8550,16 +8823,19 @@
       <c r="AA91">
         <v>3.3169</v>
       </c>
-    </row>
-    <row r="92" spans="1:27">
+      <c r="AB91">
+        <v>1.391987431264729</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D92">
         <v>0.1023</v>
@@ -8632,6 +8908,9 @@
       </c>
       <c r="AA92">
         <v>2.821800000000001</v>
+      </c>
+      <c r="AB92">
+        <v>1.377269139700079</v>
       </c>
     </row>
   </sheetData>
